--- a/江苏/国电投江苏/刘锐接口数据校验/导出/模板.xlsx
+++ b/江苏/国电投江苏/刘锐接口数据校验/导出/模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17775" tabRatio="906" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="22188" windowHeight="9180" tabRatio="906" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总-MWh" sheetId="13" state="hidden" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="140">
   <si>
     <t>勾选补贴</t>
   </si>
@@ -1593,35 +1593,35 @@
       <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="14.1083333333333"/>
-    <col min="3" max="3" width="11.775"/>
-    <col min="4" max="4" width="12.8916666666667"/>
-    <col min="5" max="5" width="14.1083333333333"/>
-    <col min="6" max="6" width="12.8916666666667"/>
-    <col min="7" max="9" width="14.1083333333333"/>
-    <col min="10" max="10" width="11.775"/>
-    <col min="11" max="11" width="12.8916666666667"/>
-    <col min="12" max="12" width="14.1083333333333"/>
-    <col min="14" max="15" width="14.1083333333333"/>
-    <col min="16" max="16" width="12.8916666666667"/>
+    <col min="2" max="2" width="14.1111111111111"/>
+    <col min="3" max="3" width="11.7777777777778"/>
+    <col min="4" max="4" width="12.8888888888889"/>
+    <col min="5" max="5" width="14.1111111111111"/>
+    <col min="6" max="6" width="12.8888888888889"/>
+    <col min="7" max="9" width="14.1111111111111"/>
+    <col min="10" max="10" width="11.7777777777778"/>
+    <col min="11" max="11" width="12.8888888888889"/>
+    <col min="12" max="12" width="14.1111111111111"/>
+    <col min="14" max="15" width="14.1111111111111"/>
+    <col min="16" max="16" width="12.8888888888889"/>
     <col min="17" max="17" width="10.6666666666667"/>
-    <col min="18" max="18" width="12.8916666666667"/>
-    <col min="19" max="19" width="8.89166666666667" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="12.8916666666667"/>
+    <col min="18" max="18" width="12.8888888888889"/>
+    <col min="19" max="19" width="8.88888888888889" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="12.8888888888889"/>
     <col min="21" max="21" width="9.66666666666667"/>
-    <col min="22" max="25" width="12.8916666666667"/>
-    <col min="26" max="26" width="14.1083333333333"/>
-    <col min="28" max="29" width="14.1083333333333"/>
-    <col min="30" max="31" width="12.8916666666667"/>
-    <col min="32" max="32" width="14.1083333333333"/>
-    <col min="33" max="33" width="12.8916666666667"/>
+    <col min="22" max="25" width="12.8888888888889"/>
+    <col min="26" max="26" width="14.1111111111111"/>
+    <col min="28" max="29" width="14.1111111111111"/>
+    <col min="30" max="31" width="12.8888888888889"/>
+    <col min="32" max="32" width="14.1111111111111"/>
+    <col min="33" max="33" width="12.8888888888889"/>
     <col min="34" max="34" width="9.66666666666667"/>
     <col min="35" max="35" width="10.6666666666667"/>
-    <col min="36" max="39" width="12.8916666666667"/>
-    <col min="40" max="41" width="14.1083333333333"/>
-    <col min="42" max="42" width="12.8916666666667"/>
+    <col min="36" max="39" width="12.8888888888889"/>
+    <col min="40" max="41" width="14.1111111111111"/>
+    <col min="42" max="42" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
@@ -1725,7 +1725,7 @@
       <c r="AO2" s="19"/>
       <c r="AP2" s="22"/>
     </row>
-    <row r="3" ht="67.5" spans="1:42">
+    <row r="3" ht="72" spans="1:42">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -18768,15 +18768,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CX1"/>
+  <dimension ref="A1:CV1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:102">
+    <row r="1" spans="1:100">
       <c r="A1" t="s">
         <v>136</v>
       </c>
@@ -18796,291 +18796,285 @@
         <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="CX1" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -19093,15 +19087,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CX1"/>
+  <dimension ref="A1:CV1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+      <selection activeCell="F1" sqref="E$1:F$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:102">
+    <row r="1" spans="1:100">
       <c r="A1" t="s">
         <v>139</v>
       </c>
@@ -19121,291 +19115,285 @@
         <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="CX1" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -19418,15 +19406,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CW1"/>
+  <dimension ref="A1:CU1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:101">
+    <row r="1" spans="1:99">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -19443,291 +19431,285 @@
         <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="CW1" s="1" t="s">
         <v>135</v>
       </c>
     </row>
